--- a/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Edad-trans_orig.xlsx
@@ -566,7 +566,7 @@
         <v>7.529333631593637</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.612101850422737</v>
+        <v>7.612101850422738</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.531118152319046</v>
+        <v>7.535463542656661</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.370541861586891</v>
+        <v>7.365517739225901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.481586021136405</v>
+        <v>7.493927391596569</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.83270464970655</v>
+        <v>7.828815142811727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.670879692358631</v>
+        <v>7.693882072432658</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.713132064977521</v>
+        <v>7.712849482610656</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>7.307980644960028</v>
+        <v>7.307980644960029</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>7.269565926369256</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.198646791263242</v>
+        <v>7.177802557152437</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.168164913404349</v>
+        <v>7.158482903900446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.199398246975694</v>
+        <v>7.200944562428525</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.417858519655946</v>
+        <v>7.408339483403219</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.376282517663958</v>
+        <v>7.379751940777246</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.369390933395177</v>
+        <v>7.360771121798858</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>7.061045469358938</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.091121180236939</v>
+        <v>7.091121180236938</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.024015569795545</v>
+        <v>7.034077192966555</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.990533422705287</v>
+        <v>6.987379154096192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.029689790462358</v>
+        <v>7.026608825960986</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.207470199869249</v>
+        <v>7.204309888858417</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.133786848495199</v>
+        <v>7.129863930855593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.143496526604659</v>
+        <v>7.144496577074261</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>6.955913465451458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.971822337874286</v>
+        <v>6.971822337874287</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.905845447901422</v>
+        <v>6.899768184137559</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.891708975687173</v>
+        <v>6.891817979977479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.917936845370107</v>
+        <v>6.920565061846506</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.074571810451137</v>
+        <v>7.077110749539957</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.020733052647967</v>
+        <v>7.022317269292904</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.027238437052453</v>
+        <v>7.022053109106402</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6.970988729227285</v>
+        <v>6.970988729227284</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.735898446827699</v>
+        <v>6.7358984468277</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>6.853905628998143</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.891740241323157</v>
+        <v>6.89383541241496</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.658364124094001</v>
+        <v>6.654721974479148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.795039361638287</v>
+        <v>6.804373206538191</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.052684411677193</v>
+        <v>7.050837515206248</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.813716976651042</v>
+        <v>6.806572911906369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.913678389733525</v>
+        <v>6.916085453783582</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.838485286152046</v>
+        <v>6.847719716486487</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.709620714396587</v>
+        <v>6.726095556963339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.808108100121594</v>
+        <v>6.807001203460133</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.043514683439937</v>
+        <v>7.049801221744947</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.886195976502209</v>
+        <v>6.892766063051873</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.94164333236333</v>
+        <v>6.94061794072443</v>
       </c>
     </row>
     <row r="22">
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>6.996067794598058</v>
+        <v>6.996067794598057</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.851662993480117</v>
+        <v>6.851662993480116</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.910034239492025</v>
+        <v>6.910034239492027</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.872581290734734</v>
+        <v>6.879931835878966</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.747453708380555</v>
+        <v>6.755049883139879</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.835634939907307</v>
+        <v>6.833466339436432</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.11688063180623</v>
+        <v>7.113560426103088</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.955058982939121</v>
+        <v>6.965762191564827</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.987237226516487</v>
+        <v>6.989567985439847</v>
       </c>
     </row>
     <row r="25">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>7.126419049499287</v>
+        <v>7.126419049499288</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7.005746247991383</v>
+        <v>7.005746247991382</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>7.064413261597092</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.08490770125211</v>
+        <v>7.088979830651822</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.970102600844934</v>
+        <v>6.971439956121181</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.040778996834971</v>
+        <v>7.037436578475653</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.164898046455233</v>
+        <v>7.166555556891459</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.04268076203464</v>
+        <v>7.04144963383848</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.092185061815448</v>
+        <v>7.091153603220074</v>
       </c>
     </row>
     <row r="28">
